--- a/data/trans_dic/P9_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P9_2_R-Provincia-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que dejo de hacer algunas tareas por problemas físicos</t>
+          <t>Población que dejó de hacer algunas tareas por problemas físicos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 12,62</t>
+          <t>5,76; 12,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 15,05</t>
+          <t>7,26; 14,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 11,85</t>
+          <t>5,7; 12,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,67; 18,34</t>
+          <t>9,3; 18,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,62; 30,17</t>
+          <t>20,37; 31,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,98; 14,58</t>
+          <t>9,09; 14,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,42; 13,89</t>
+          <t>8,61; 14,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,32; 20,98</t>
+          <t>14,51; 21,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,02; 12,18</t>
+          <t>7,97; 12,15</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,83; 12,31</t>
+          <t>6,98; 12,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,86; 14,03</t>
+          <t>7,86; 14,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,08; 11,18</t>
+          <t>6,11; 10,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,51; 21,96</t>
+          <t>14,33; 21,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,36; 19,45</t>
+          <t>13,28; 19,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,85; 22,27</t>
+          <t>14,95; 22,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,92; 18,76</t>
+          <t>11,76; 18,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,4; 27,86</t>
+          <t>21,49; 27,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,89; 14,99</t>
+          <t>10,78; 14,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,33; 16,94</t>
+          <t>12,4; 17,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,78; 13,74</t>
+          <t>9,87; 14,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,92; 24,17</t>
+          <t>19,06; 23,78</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,82</t>
+          <t>2,86; 7,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,41; 15,84</t>
+          <t>8,43; 16,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 10,8</t>
+          <t>5,08; 10,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,62; 17,65</t>
+          <t>10,54; 17,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,41; 15,98</t>
+          <t>8,42; 15,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,08; 21,79</t>
+          <t>13,5; 21,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,87; 14,95</t>
+          <t>7,68; 14,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,57; 21,18</t>
+          <t>14,52; 20,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 10,65</t>
+          <t>6,36; 10,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,63; 17,43</t>
+          <t>11,84; 17,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 11,96</t>
+          <t>7,09; 11,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,52; 18,2</t>
+          <t>13,6; 18,36</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,4</t>
+          <t>2,01; 6,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,69; 17,66</t>
+          <t>11,79; 17,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,01; 20,89</t>
+          <t>12,95; 20,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,02; 24,13</t>
+          <t>14,24; 23,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,19; 18,37</t>
+          <t>10,79; 18,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,73; 33,47</t>
+          <t>26,37; 33,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,36; 35,53</t>
+          <t>25,4; 35,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,06; 28,74</t>
+          <t>20,19; 28,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 11,49</t>
+          <t>7,13; 11,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,99; 24,44</t>
+          <t>19,93; 24,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,39; 26,76</t>
+          <t>20,18; 26,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,55; 25,1</t>
+          <t>18,72; 25,28</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 11,46</t>
+          <t>4,32; 11,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,83; 16,67</t>
+          <t>7,48; 15,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,45; 12,04</t>
+          <t>4,87; 12,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,58; 10,49</t>
+          <t>4,24; 10,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 16,73</t>
+          <t>7,48; 16,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,55; 33,15</t>
+          <t>20,94; 32,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,4; 18,42</t>
+          <t>9,74; 18,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,42; 15,18</t>
+          <t>9,39; 14,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,67; 12,3</t>
+          <t>6,77; 12,78</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,83; 23,23</t>
+          <t>15,85; 23,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,29; 13,95</t>
+          <t>7,86; 13,88</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,71</t>
+          <t>7,78; 11,87</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,58; 12,1</t>
+          <t>5,17; 11,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,44; 17,33</t>
+          <t>9,29; 17,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,42; 18,76</t>
+          <t>9,91; 18,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,33; 14,71</t>
+          <t>8,35; 14,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,52; 21,23</t>
+          <t>12,13; 21,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,4; 21,2</t>
+          <t>12,47; 21,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,46; 26,65</t>
+          <t>16,0; 26,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,41; 18,8</t>
+          <t>12,75; 19,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,91; 15,59</t>
+          <t>9,68; 15,56</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,67; 17,95</t>
+          <t>11,96; 18,07</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,29; 21,25</t>
+          <t>14,49; 20,95</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,21; 15,67</t>
+          <t>11,66; 16,18</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,0; 11,83</t>
+          <t>7,18; 12,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,43; 9,56</t>
+          <t>5,43; 9,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,49; 11,16</t>
+          <t>6,54; 11,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,56; 15,72</t>
+          <t>10,22; 15,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,85; 16,02</t>
+          <t>10,98; 16,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,47; 17,83</t>
+          <t>12,5; 17,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,02; 22,33</t>
+          <t>15,87; 22,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,48; 22,72</t>
+          <t>11,53; 22,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,56; 13,05</t>
+          <t>9,84; 13,47</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,34; 13,21</t>
+          <t>9,55; 13,11</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,08; 15,99</t>
+          <t>11,98; 16,01</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,54; 18,47</t>
+          <t>12,13; 18,43</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,12; 12,39</t>
+          <t>8,09; 12,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,06; 13,02</t>
+          <t>8,44; 13,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,76</t>
+          <t>4,5; 8,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,64; 13,44</t>
+          <t>8,41; 13,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,87; 19,3</t>
+          <t>13,66; 19,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,74; 20,03</t>
+          <t>14,39; 19,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,04; 15,32</t>
+          <t>10,41; 15,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,88; 23,41</t>
+          <t>17,7; 23,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,71; 15,17</t>
+          <t>11,84; 15,29</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12,25; 15,83</t>
+          <t>12,15; 15,82</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,99; 11,13</t>
+          <t>8,07; 11,02</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,57; 17,38</t>
+          <t>13,54; 17,5</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,31; 9,16</t>
+          <t>7,22; 9,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,89; 12,18</t>
+          <t>9,93; 12,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,32; 10,32</t>
+          <t>8,33; 10,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,71; 14,14</t>
+          <t>11,63; 14,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>13,43; 15,85</t>
+          <t>13,41; 15,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,55; 21,26</t>
+          <t>18,48; 21,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>16,32; 19,18</t>
+          <t>16,41; 19,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17,36; 20,57</t>
+          <t>17,37; 20,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>10,71; 12,25</t>
+          <t>10,74; 12,29</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>14,69; 16,43</t>
+          <t>14,71; 16,5</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>12,64; 14,46</t>
+          <t>12,79; 14,44</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>15,14; 17,15</t>
+          <t>15,16; 17,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P9_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P9_2_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,76; 12,96</t>
+          <t>5,72; 12,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 14,54</t>
+          <t>7,23; 14,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,3; 18,21</t>
+          <t>9,51; 18,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,37; 31,09</t>
+          <t>20,11; 30,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,61; 14,02</t>
+          <t>8,4; 14,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,51; 21,31</t>
+          <t>14,54; 21,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,98; 12,36</t>
+          <t>6,7; 11,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,86; 14,02</t>
+          <t>7,99; 13,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,11; 10,93</t>
+          <t>6,21; 10,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,28; 19,62</t>
+          <t>13,23; 19,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,95; 22,24</t>
+          <t>14,93; 22,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,76; 18,19</t>
+          <t>12,09; 18,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,78; 14,93</t>
+          <t>10,73; 15,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,4; 17,33</t>
+          <t>12,16; 16,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,87; 14,22</t>
+          <t>9,66; 13,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 7,49</t>
+          <t>2,88; 7,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,43; 16,41</t>
+          <t>8,53; 16,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 10,7</t>
+          <t>5,03; 10,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,42; 15,61</t>
+          <t>8,78; 15,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,5; 21,83</t>
+          <t>13,47; 21,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,68; 14,71</t>
+          <t>7,63; 15,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,85</t>
+          <t>6,37; 10,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,84; 17,63</t>
+          <t>11,69; 17,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,09; 11,83</t>
+          <t>7,16; 11,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 6,03</t>
+          <t>2,05; 5,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,79; 17,61</t>
+          <t>11,42; 17,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,95; 20,63</t>
+          <t>13,33; 21,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,79; 18,09</t>
+          <t>10,75; 17,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,37; 33,59</t>
+          <t>26,65; 34,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,4; 35,1</t>
+          <t>25,2; 35,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,63</t>
+          <t>7,1; 11,13</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,93; 24,68</t>
+          <t>19,98; 24,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,18; 26,79</t>
+          <t>20,66; 26,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,32; 11,62</t>
+          <t>4,07; 11,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 15,99</t>
+          <t>7,82; 17,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 12,35</t>
+          <t>5,1; 12,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 16,98</t>
+          <t>7,34; 16,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,94; 32,94</t>
+          <t>21,01; 33,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,74; 18,99</t>
+          <t>9,69; 19,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,77; 12,78</t>
+          <t>6,82; 12,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,85; 23,38</t>
+          <t>15,59; 23,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,86; 13,88</t>
+          <t>7,96; 13,95</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,17; 11,52</t>
+          <t>5,45; 12,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,29; 17,28</t>
+          <t>9,13; 17,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,91; 18,59</t>
+          <t>10,18; 18,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,13; 21,25</t>
+          <t>12,35; 21,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,47; 21,62</t>
+          <t>12,58; 21,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,0; 26,43</t>
+          <t>16,11; 26,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,68; 15,56</t>
+          <t>9,65; 15,25</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,96; 18,07</t>
+          <t>11,87; 18,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,49; 20,95</t>
+          <t>14,37; 21,14</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,18; 12,06</t>
+          <t>7,09; 12,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,43; 9,38</t>
+          <t>5,37; 9,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,54; 11,0</t>
+          <t>6,43; 11,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,98; 16,39</t>
+          <t>11,02; 16,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,5; 17,82</t>
+          <t>12,48; 18,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,87; 22,44</t>
+          <t>15,89; 22,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,84; 13,47</t>
+          <t>9,7; 13,34</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,55; 13,11</t>
+          <t>9,44; 12,99</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>11,98; 16,01</t>
+          <t>12,24; 16,09</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,09; 12,53</t>
+          <t>8,02; 12,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,44; 13,04</t>
+          <t>8,16; 13,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,5; 8,03</t>
+          <t>4,33; 7,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,66; 19,04</t>
+          <t>13,84; 19,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,39; 19,65</t>
+          <t>14,39; 20,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,41; 15,42</t>
+          <t>10,17; 15,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,84; 15,29</t>
+          <t>11,75; 15,25</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12,15; 15,82</t>
+          <t>12,23; 15,74</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,07; 11,02</t>
+          <t>8,12; 11,01</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,22; 9,11</t>
+          <t>7,3; 9,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,93; 12,06</t>
+          <t>9,91; 12,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,33; 10,3</t>
+          <t>8,25; 10,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>13,41; 15,93</t>
+          <t>13,53; 15,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,48; 21,38</t>
+          <t>18,71; 21,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>16,41; 19,02</t>
+          <t>16,32; 19,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>10,74; 12,29</t>
+          <t>10,72; 12,27</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>14,71; 16,5</t>
+          <t>14,7; 16,53</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>12,79; 14,44</t>
+          <t>12,8; 14,53</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
